--- a/spliced/falling/2023-03-25_17-58-47/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-47/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.08491026610136029</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0294742472469806</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0413861200213432</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0959058403968811</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-47/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-47/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.09758572280406951</v>
+        <v>-0.0774271711707115</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0615446716547012</v>
+        <v>0.1702786833047866</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08017606288194649</v>
+        <v>-0.0888808965682983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.07956519722938531</v>
+        <v>-0.047036625444889</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1488984078168869</v>
+        <v>0.0433714315295219</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1036943718791008</v>
+        <v>-0.0064140851609408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0178678091615438</v>
+        <v>0.0061086523346602</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0836885422468185</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0500909499824047</v>
+        <v>-0.0610865242779254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0439822971820831</v>
+        <v>0.0401643887162208</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08017606288194649</v>
+        <v>0.0001527163112768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1090394482016563</v>
+        <v>0.0146607663482427</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9398161768913268</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2848159074783325</v>
+        <v>0.0464257597923278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0601702257990837</v>
+        <v>-0.0455094613134861</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5073235630989075</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0161879286170005</v>
+        <v>0.0467311926186084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3770565688610077</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2907718420028686</v>
+        <v>0.0041233403608202</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.639104127883911</v>
+        <v>0.0065668015740811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.575268745422363</v>
+        <v>0.0096211275085806</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9181304574012756</v>
+        <v>-0.0128281703218817</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.197726726531982</v>
+        <v>0.0253509078174829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5009095072746277</v>
+        <v>0.024892758578062</v>
       </c>
       <c r="B10" t="n">
-        <v>3.925878286361694</v>
+        <v>-0.0320704244077205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5390886068344116</v>
+        <v>0.0131336031481623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.016924381256104</v>
+        <v>0.0187841057777404</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4338670372962951</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.551736831665039</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.234558701515198</v>
+        <v>-0.028557950630784</v>
       </c>
       <c r="B12" t="n">
-        <v>2.077705383300781</v>
+        <v>-0.0305432621389627</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.801913321018219</v>
+        <v>-0.0201585534960031</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8013024926185608</v>
+        <v>-0.0192422550171613</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.52746856212616</v>
+        <v>0.0343611687421798</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2012801021337509</v>
+        <v>-0.0004581489483825</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7525860071182251</v>
+        <v>0.009010262787342</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.772551059722901</v>
+        <v>0.0630718395113945</v>
       </c>
       <c r="C14" t="n">
-        <v>1.262963891029358</v>
+        <v>-0.0142026171088218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4665483236312866</v>
+        <v>0.0442877300083637</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3252857327461242</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3428481221199035</v>
+        <v>-0.001527163083665</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1076650023460388</v>
+        <v>-0.0262672062963247</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3216205537319183</v>
+        <v>-0.027030786499381</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2797762751579284</v>
+        <v>-0.0058032199740409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0665843114256858</v>
+        <v>-0.09758572280406951</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.313832014799118</v>
+        <v>0.0615446716547012</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.247553139925003</v>
+        <v>-0.08017606288194649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08277224004268641</v>
+        <v>-0.07956519722938531</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1805106848478317</v>
+        <v>0.1488984078168869</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0117591563612222</v>
+        <v>-0.1036943718791008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0708603709936142</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0029016099870204</v>
+        <v>0.0836885422468185</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1099557429552078</v>
+        <v>0.0500909499824047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0120645882561802</v>
+        <v>0.0439822971820831</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0048869219608604</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0180205255746841</v>
+        <v>-0.08017606288194649</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.06536258012056349</v>
+        <v>0.1090394482016563</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1009454801678657</v>
+        <v>0.9398161768913268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08491026610136029</v>
+        <v>-0.2848159074783325</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0601702257990837</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5073235630989075</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0161879286170005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3770565688610077</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2907718420028686</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.639104127883911</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.575268745422363</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9181304574012756</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.197726726531982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5009095072746277</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.925878286361694</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5390886068344116</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.016924381256104</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4338670372962951</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.551736831665039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.234558701515198</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.077705383300781</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.801913321018219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.8013024926185608</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.52746856212616</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2012801021337509</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7525860071182251</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.772551059722901</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.262963891029358</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.4665483236312866</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3252857327461242</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3428481221199035</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1076650023460388</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.3216205537319183</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2797762751579284</v>
       </c>
     </row>
   </sheetData>
